--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220521_110302.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220521_110302.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>WAKE ONE</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -1922,7 +1919,7 @@
         <v>181</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H30" t="s">
         <v>234</v>
@@ -2104,7 +2101,7 @@
         <v>182</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H37" t="s">
         <v>234</v>
@@ -2156,7 +2153,7 @@
         <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s">
         <v>234</v>
@@ -2234,7 +2231,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H42" t="s">
         <v>234</v>
@@ -2286,7 +2283,7 @@
         <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H44" t="s">
         <v>234</v>
@@ -2312,7 +2309,7 @@
         <v>186</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H45" t="s">
         <v>234</v>
@@ -2390,7 +2387,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
         <v>234</v>
@@ -2520,7 +2517,7 @@
         <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H53" t="s">
         <v>234</v>
@@ -2546,7 +2543,7 @@
         <v>190</v>
       </c>
       <c r="G54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H54" t="s">
         <v>234</v>
@@ -2572,7 +2569,7 @@
         <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H55" t="s">
         <v>234</v>
@@ -2650,10 +2647,10 @@
         <v>193</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2702,10 +2699,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2728,7 +2725,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H61" t="s">
         <v>234</v>
@@ -2754,7 +2751,7 @@
         <v>186</v>
       </c>
       <c r="G62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H62" t="s">
         <v>234</v>
@@ -2780,7 +2777,7 @@
         <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
         <v>234</v>
@@ -2806,7 +2803,7 @@
         <v>195</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H64" t="s">
         <v>234</v>
@@ -2858,7 +2855,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H66" t="s">
         <v>234</v>
@@ -2910,10 +2907,10 @@
         <v>198</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2988,7 +2985,7 @@
         <v>200</v>
       </c>
       <c r="G71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H71" t="s">
         <v>234</v>
@@ -3092,7 +3089,7 @@
         <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
         <v>234</v>
@@ -3118,7 +3115,7 @@
         <v>204</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H76" t="s">
         <v>234</v>
@@ -3144,7 +3141,7 @@
         <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
         <v>234</v>
@@ -3170,7 +3167,7 @@
         <v>206</v>
       </c>
       <c r="G78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
         <v>234</v>
@@ -3248,7 +3245,7 @@
         <v>209</v>
       </c>
       <c r="G81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H81" t="s">
         <v>234</v>
@@ -3274,7 +3271,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H82" t="s">
         <v>234</v>
@@ -3326,10 +3323,10 @@
         <v>211</v>
       </c>
       <c r="G84" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H84" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3352,7 +3349,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
         <v>234</v>
@@ -3378,7 +3375,7 @@
         <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H86" t="s">
         <v>234</v>
@@ -3456,7 +3453,7 @@
         <v>214</v>
       </c>
       <c r="G89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H89" t="s">
         <v>234</v>
@@ -3482,7 +3479,7 @@
         <v>215</v>
       </c>
       <c r="G90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H90" t="s">
         <v>234</v>
@@ -3508,7 +3505,7 @@
         <v>216</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H91" t="s">
         <v>234</v>
@@ -3664,7 +3661,7 @@
         <v>220</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H97" t="s">
         <v>234</v>
@@ -3716,7 +3713,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H99" t="s">
         <v>234</v>
@@ -3742,7 +3739,7 @@
         <v>221</v>
       </c>
       <c r="G100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H100" t="s">
         <v>234</v>
@@ -3768,7 +3765,7 @@
         <v>184</v>
       </c>
       <c r="G101" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H101" t="s">
         <v>234</v>
